--- a/单词表_五合一.xlsx
+++ b/单词表_五合一.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g4560\Desktop\港城莞CS资料\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB27A95-D98F-4422-90BA-70E11121AF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12465" yWindow="870" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9324" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CG" sheetId="1" r:id="rId1"/>
@@ -19,160 +13,167 @@
     <sheet name="ML" sheetId="4" r:id="rId4"/>
     <sheet name="Algorithms" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="389">
+  <si>
+    <t>Introduction to Computer Graphics_CS5182.pdf</t>
+  </si>
   <si>
     <t>geometry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>几何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introduction to Computer Graphics_CS5182.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Projection and Clipping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>投影与剪裁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裁剪是指去除在投影时不可见的部分</t>
   </si>
   <si>
     <t>Radiosity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>辐射度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Aliasing and Antialiasing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>裁剪是指去除在投影时不可见的部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>走样与抗锯齿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>走样，例如：当一个矩形在屏幕上快速旋转时，如果其边缘没有被足够多的像素精确表示，就可能出现锯齿状的边缘。
 抗锯齿：通过在物体边缘的像素之间插入中间颜色（通常是物体颜色和背景颜色的混合），使得边缘看起来更加平滑和自然。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pictorial synthesis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图像合成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>从二维或三维模型生成图像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>proverb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>言语</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>uni-color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stuntmen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特技演员（替身）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>modification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我经常把modification错以为是模拟，乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Automobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>汽车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>我一开始以为是自动驾驶，乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>phytoplankton</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浮游植物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xCFg5udYbAg</t>
+  </si>
+  <si>
+    <t>hubble</t>
+  </si>
+  <si>
+    <t>哈勃望远镜</t>
+  </si>
+  <si>
+    <t>光学和紫外线观测</t>
+  </si>
+  <si>
+    <t>Spitzer</t>
+  </si>
+  <si>
+    <t>斯皮策空间望远镜</t>
+  </si>
+  <si>
+    <t>红外天文卫星</t>
+  </si>
+  <si>
+    <t>Infrared view</t>
+  </si>
+  <si>
+    <t>红外视图</t>
   </si>
   <si>
     <t>Polygonal meshes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>多边形网格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Subdivision surfaces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>细分曲面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>从粗糙的多边形网格开始，通过一系列细分步骤逐步增加顶点和边，从而生成更平滑的曲面。在动画和电影制作中很有用，如人物的皮肤或柔软物体的表面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Splines</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>样条曲线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如贝塞尔曲线（Bezier curves）、B样条曲线（B-spline curves）或NURBS（非均匀有理B样条曲线）</t>
     </r>
     <r>
@@ -180,389 +181,266 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>，通过控制点来定义，允许艺术家或设计师精确控制曲线的形状</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Denoising</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>降噪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shape registration</t>
+  </si>
+  <si>
+    <t>形状配准</t>
+  </si>
+  <si>
+    <t>就是align，起码在同一个坐标系里</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morphing </t>
   </si>
   <si>
     <t>变形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pedestal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>底座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>polygons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>多边形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shape registration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>形状配准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就是align，起码在同一个坐标系里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xCFg5udYbAg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hubble</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈勃望远镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spitzer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯皮策空间望远镜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光学和紫外线观测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infrared view</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红外视图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红外天文卫星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=U0Q9QnYRsoU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>calibrate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>配准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>curvature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>弯曲程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Off-the-shelf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非定制的</t>
   </si>
   <si>
     <t>即这种3D打印机是标准化制作的，消费者可以直接购买并使用，而不需要等待定制或特别制造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非定制的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>vacuum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>真空吸尘器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>high-fidelity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高精度的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>显著的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tradeoff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>权衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Deformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Morphing </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>interpolation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编纂，插入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这里是说把牛角和马面合成一个新object那种杂交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>intermediate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>居中的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Local deformation in non-rigid shapes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>非刚性形状中的局部变形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">discrepancies </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>差异</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Asimo-like robot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人形机器人。类ASIMO机器人的机器人</t>
   </si>
   <si>
     <t>rouge-like一样，本田（Honda）公司开发了经典ASIMO机器人，Advanced Step in Innovative Mobility，人形机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人形机器人。类ASIMO机器人的机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>viewpoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>视角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cinematography</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电影摄影术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">refraction </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>反射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>motion-blur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动态模糊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>delineate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阐述标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Radiance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>光泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sparse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>稀疏的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>panorama</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全景图像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>exploratory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>勘探性的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>raster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>光栅的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>raster graphics image就是位图，像素点存储信息，比如jpeg，对应矢量图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> optics (physics), visual perception and art</t>
   </si>
   <si>
     <t>光学（物理学），视觉感知和艺术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> optics (physics), visual perception and art</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pseudo-physics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>伪物理，类似伪代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">mechanics (physics) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>力学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>week2Object modeling_CS5182.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Implicit Surfaces</t>
+  </si>
+  <si>
+    <t>隐式曲面</t>
+  </si>
+  <si>
+    <t>隐式曲面的优点是判断一个点是否在曲面内部非常高效。缺点是不容易从曲面上生成点，也难以将它们进行拼接以保持连续性和光滑性。</t>
+  </si>
+  <si>
+    <t>Parametric Surfaces</t>
+  </si>
+  <si>
+    <t>参数曲面</t>
+  </si>
+  <si>
+    <t>参数曲面可以表示复杂的几何形状，但渲染成本较高，因为需要对每个 u 和 v的组合计算参数方程。</t>
+  </si>
+  <si>
+    <t>Voxel Representation</t>
+  </si>
+  <si>
+    <t>体素表示（三维像素化）</t>
+  </si>
+  <si>
+    <t>将对象分解成固定规则的三维网格中的相同单元</t>
+  </si>
+  <si>
+    <t>Constructive Solid Geometry (CSG)</t>
+  </si>
+  <si>
+    <t>构造实体几何</t>
+  </si>
+  <si>
+    <t>通过布尔运算（如合并、交集、差集）组合简单几何体来创建复杂对象（类似做PPT特殊图形）</t>
+  </si>
+  <si>
+    <t>Fractals</t>
+  </si>
+  <si>
+    <t>分形</t>
+  </si>
+  <si>
+    <t>在所有分辨率下都自相似的对象</t>
   </si>
   <si>
     <t>swap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>v交换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这里是说对称的话就交换xy坐标轴就好了，所以只考虑斜率在0-1之间的情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Implicit Surfaces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐式曲面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐式曲面的优点是判断一个点是否在曲面内部非常高效。缺点是不容易从曲面上生成点，也难以将它们进行拼接以保持连续性和光滑性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Parametric Surfaces</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数曲面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数曲面可以表示复杂的几何形状，但渲染成本较高，因为需要对每个 u 和 v的组合计算参数方程。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Voxel Representation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将对象分解成固定规则的三维网格中的相同单元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体素表示（三维像素化）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Constructive Solid Geometry (CSG)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>构造实体几何</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过布尔运算（如合并、交集、差集）组合简单几何体来创建复杂对象（类似做PPT特殊图形）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fractals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在所有分辨率下都自相似的对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Introduction_2024_lec01.pdf</t>
@@ -616,9 +494,6 @@
     <t>语法</t>
   </si>
   <si>
-    <t>delineate</t>
-  </si>
-  <si>
     <t>划分界定</t>
   </si>
   <si>
@@ -644,123 +519,93 @@
   </si>
   <si>
     <t>Transport_Layer_2024_lec03_04.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>multiplexing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>多路复用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>demultiplexing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>解复用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> application processes </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>应用程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不是应用进程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>payload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有效负载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>wraparound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>a包着的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>premature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过早的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>premature timeout/delayed ACK意思是实际上没有超时，只不过ACK到的有点晚超过了timeout时长，那么虽然重发了，也会再次收到第二个一样的ack但是把第二次ack给ignore掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当然可以理解为比例。BTW，pipelined protocol里是3L/R比上L/R+RTT而不是3L/R+RTT就很离谱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>generic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通用的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cumulative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>累积的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GBN协议，receiver连续收到多个pkt只发送一个ack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>timer expire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>计时器到期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>full duplex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全双工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>exponential</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>指数的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lecture 2- Symmetric-Key-Encryption-SlidesOnly</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>英文</t>
@@ -779,11 +624,9 @@
   </si>
   <si>
     <t>countermeasures</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对策</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Confidentiality</t>
@@ -817,15 +660,12 @@
   </si>
   <si>
     <t>"QED"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是拉丁语 "Quod Erat Demonstrandum" 的缩写，意为 "正如所要证明的"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>"ychrpyaprtgo is cracked to ______________, QED." 这句话意味着某个密码或加密信息已经被成功破解，并且破解的过程或结果已经得到了证明。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cipher</t>
@@ -898,52 +738,42 @@
   </si>
   <si>
     <t>Kerckhoffs Principle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>柯克霍夫原则</t>
   </si>
   <si>
     <t>只要key没有泄露就是安全的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>obscurity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>晦涩难懂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>No “security through obscurity”就是说加密解密算法一般是公开的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Caesar Cipher</t>
   </si>
   <si>
     <t>凯撒密码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>substitution cipher</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>替换密码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Simple Substitution</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>替代</t>
   </si>
   <si>
     <t>each plaintext letter is substituted by a distinct ciphertext letter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Frequency Analysis</t>
@@ -971,87 +801,66 @@
   </si>
   <si>
     <t>matters of state</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>国家事务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>linguistics</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>语言学</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Qur’an</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>可兰经</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>乐，应该把永乐大典拿来研究中国文字建政文化的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>asymmetric</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>不对称的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>h后面常常在e前面he,here，而不常在e后面behind</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>crib</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>译文（试值）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>比如你常常看到ciphertext有xyz你怀疑是the，于是代进去看一看（是不是像高考数学试个特殊值以及选择题把选项值代进去）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>be accounted for</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>被解释清楚</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>polyalphabetic</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>多字母加密法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Vigenère cipher</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>为基尼尔加密法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>interwoven</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>交织使用</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Stream Cipher</t>
@@ -1181,18 +990,15 @@
   </si>
   <si>
     <t>mathematically derive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数学推导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>empirical</t>
   </si>
   <si>
     <t>经验主义的；以实验(或经验)为依据的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>prerequisite</t>
@@ -1202,26 +1008,21 @@
   </si>
   <si>
     <t xml:space="preserve">Calculus (e.g., continuity, differentiability) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微积分（连续性、可微性）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>derivative</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>导数</t>
   </si>
   <si>
     <t>w.r.t.  with respect to</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>关于</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>citation</t>
@@ -1231,7 +1032,6 @@
   </si>
   <si>
     <t>permutation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>integrate</t>
@@ -1283,50 +1083,46 @@
   </si>
   <si>
     <t xml:space="preserve">monotonicity </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单调性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lecture 2.1: Naive Bayes and Linear Discriminant Analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>术语表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Naïve Bayes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>朴素贝叶斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Linear Discriminant Analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>线性判别分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> quadratic function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二次方程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>“ill-posed problem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>问题的设定方式使得其解不是良定义的，或者解对输入数据的小变化非常敏感.所以相同数据用不同分布可能是</t>
     </r>
     <r>
@@ -1334,170 +1130,143 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ok的，即使大数据也很难说哪个分布被定于一尊</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>perpendicular</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>垂直的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tutorial 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corpus(语料库) </t>
+  </si>
+  <si>
+    <t>sparse（稀疏的）</t>
+  </si>
+  <si>
+    <t>i.e.</t>
+  </si>
+  <si>
+    <r>
+      <t>拉丁短语 "id est" 的缩写，意为 "that is" 或</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "in other words"</t>
+    </r>
   </si>
   <si>
     <t>canvas介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Streaming Algorithims</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>流式處理算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Amortized Analysis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 攤銷分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nash Equilibrium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>納什均衡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Auctions </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拍卖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Scheduling</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>調度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>deduct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>扣除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">typo </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>印刷小错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Introduction.pptx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Scope of the course</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>课程概览（哪一周上哪一部分内容）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ad hoc questions </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>临时添加的问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Review of Algorithms.pptx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>enumeration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枚举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Discrete Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>离散函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Palo Alto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>帕洛阿尔托（美国旧金山附近城市）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1507,18 +1276,370 @@
       <sz val="20"/>
       <color rgb="FF404040"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1526,50 +1647,330 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -1585,27 +1986,21 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D48164A-8190-6239-DFD5-032F90619245}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086601" y="7086599"/>
-          <a:ext cx="3219449" cy="2429991"/>
+          <a:off x="6800850" y="6863080"/>
+          <a:ext cx="2529840" cy="2355850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1627,21 +2022,15 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直接箭头连接符 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4208D98E-3A2A-2C18-A881-431A0C4BC5FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2800350" y="7877175"/>
-          <a:ext cx="4133850" cy="9525"/>
+          <a:off x="2571750" y="7631430"/>
+          <a:ext cx="4076700" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1713,7 +2102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1748,7 +2137,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1922,46 +2311,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:D65"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1972,23 +2356,23 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="7" ht="55.2" spans="1:4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2000,7 +2384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2014,7 +2398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -2025,7 +2409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2036,7 +2420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2047,7 +2431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2061,7 +2445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -2075,7 +2459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2086,214 +2470,214 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C24" s="7">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="2">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
       </c>
       <c r="C25">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
+      <c r="A28" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C36">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -2307,7 +2691,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2318,41 +2702,41 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>77</v>
       </c>
       <c r="B40" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="7">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>79</v>
       </c>
       <c r="B41" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42">
         <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -2363,7 +2747,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -2374,7 +2758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -2385,7 +2769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -2396,7 +2780,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -2407,7 +2791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2418,7 +2802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -2429,59 +2813,59 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="7">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>100</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="7">
         <v>55</v>
       </c>
       <c r="D52" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>107</v>
       </c>
       <c r="B54" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2489,78 +2873,78 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" ht="27.6" spans="1:4">
+      <c r="A61" t="s">
         <v>115</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>116</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>118</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>121</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" t="s">
         <v>123</v>
       </c>
-      <c r="D62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>124</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>125</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
         <v>127</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>128</v>
-      </c>
-      <c r="D64" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" t="s">
-        <v>113</v>
       </c>
       <c r="C65">
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2570,32 +2954,33 @@
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="C52:C54"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" xr:uid="{133F98D4-B0BB-48AD-BA64-E44604BE9C6F}"/>
-    <hyperlink ref="A28" r:id="rId2" xr:uid="{C5AC6A5D-DC34-4A94-8A89-49450283F028}"/>
+    <hyperlink ref="A15" r:id="rId2" display="https://www.youtube.com/watch?v=xCFg5udYbAg"/>
+    <hyperlink ref="A28" r:id="rId3" display="https://www.youtube.com/watch?v=U0Q9QnYRsoU"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01741B5E-A2E1-4347-AF42-F70FEB62EEF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -2609,7 +2994,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -2623,12 +3008,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>138</v>
       </c>
@@ -2639,7 +3024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -2650,7 +3035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>142</v>
       </c>
@@ -2664,7 +3049,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>145</v>
       </c>
@@ -2675,1312 +3060,1338 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
         <v>147</v>
-      </c>
-      <c r="B18" t="s">
-        <v>148</v>
       </c>
       <c r="C18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" t="s">
         <v>149</v>
-      </c>
-      <c r="B19" t="s">
-        <v>150</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" t="s">
         <v>151</v>
-      </c>
-      <c r="B20" t="s">
-        <v>152</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>154</v>
-      </c>
-      <c r="B21" t="s">
-        <v>155</v>
       </c>
       <c r="C21">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="5" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B26" s="5" t="s">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="C28">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="C29">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="C30">
         <v>45</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>172</v>
       </c>
       <c r="C31">
         <v>46</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="C32">
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="C33">
         <v>51</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B34" s="5" t="s">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="C35">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="C36">
         <v>65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368F82B0-4C95-4132-B52A-E04CA9FC4333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="34.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="6">
+      <c r="B6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="6">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="6">
+      <c r="B8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="6">
+      <c r="B9" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="6">
+      <c r="B10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="6">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="6">
+      <c r="B12" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="6">
+      <c r="B13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C13" s="6">
+      <c r="B14" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14" s="3">
         <v>7</v>
       </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C14" s="6">
+      <c r="B15" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="3">
         <v>7</v>
       </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="6">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="B16" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="6">
-        <v>4</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="3">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="6">
+      <c r="B18" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="3">
         <v>9</v>
       </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="6">
+      <c r="B19" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" s="3">
         <v>9</v>
       </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="6">
+      <c r="B20" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C20" s="3">
         <v>9</v>
       </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B20" s="6" t="s">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C20" s="6">
+      <c r="B21" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="3">
         <v>9</v>
       </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C22" s="3">
+        <v>8</v>
+      </c>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="3">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="3">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" ht="25.8" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="3">
         <v>9</v>
       </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C22" s="6">
-        <v>8</v>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="6">
-        <v>8</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C24" s="6">
-        <v>8</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C25" s="6">
+      <c r="B26" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="3">
         <v>9</v>
       </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C26" s="6">
-        <v>9</v>
-      </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="B27" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="3">
+        <v>16</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="C27" s="6">
-        <v>16</v>
-      </c>
-      <c r="D27" s="6" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="B28" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="3">
+        <v>24</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="6">
-        <v>24</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="3">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="6">
-        <v>19</v>
-      </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="3">
+        <v>21</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C30" s="6">
-        <v>21</v>
-      </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="3">
+        <v>20</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="C31" s="6">
-        <v>20</v>
-      </c>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="3">
+        <v>22</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="C32" s="6">
+      <c r="B33" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33" s="3">
         <v>22</v>
       </c>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C33" s="6">
-        <v>22</v>
-      </c>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="B34" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="3">
+        <v>23</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="C34" s="6">
-        <v>23</v>
-      </c>
-      <c r="D34" s="6" t="s">
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="B35" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="3">
+        <v>26</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C35" s="6">
-        <v>26</v>
-      </c>
-      <c r="D35" s="6" t="s">
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="3">
+        <v>27</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C36" s="6">
-        <v>27</v>
-      </c>
-      <c r="D36" s="6" t="s">
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="3">
+        <v>36</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C37" s="6">
+      <c r="B38" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="3">
         <v>36</v>
       </c>
-      <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B38" s="6" t="s">
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C38" s="6">
-        <v>36</v>
-      </c>
-      <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+      <c r="B39" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C39" s="3">
+        <v>37</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="C39" s="6">
+      <c r="B40" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="3">
         <v>37</v>
       </c>
-      <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B40" s="6" t="s">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="C40" s="6">
-        <v>37</v>
-      </c>
-      <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="B41" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="3">
+        <v>52</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C41" s="6">
-        <v>52</v>
-      </c>
-      <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="B42" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C42" s="3">
+        <v>58</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C42" s="6">
-        <v>58</v>
-      </c>
-      <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="B43" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C43" s="3">
+        <v>59</v>
+      </c>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C43" s="6">
-        <v>59</v>
-      </c>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="B44" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C44" s="3">
+        <v>60</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C44" s="6">
-        <v>60</v>
-      </c>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="B45" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C45" s="3">
+        <v>63</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C45" s="6">
+      <c r="B46" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C46" s="3">
         <v>63</v>
       </c>
-      <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="B46" s="6" t="s">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C46" s="6">
+      <c r="B47" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C47" s="3">
         <v>63</v>
       </c>
-      <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="B47" s="6" t="s">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C47" s="6">
-        <v>63</v>
-      </c>
-      <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="B48" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C48" s="3">
+        <v>65</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C48" s="6">
-        <v>65</v>
-      </c>
-      <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="B49" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C49" s="3">
+        <v>68</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C49" s="6">
-        <v>68</v>
-      </c>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="B50" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="C50" s="3">
+        <v>70</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C50" s="6">
-        <v>70</v>
-      </c>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+      <c r="B51" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="C51" s="3">
+        <v>71</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C51" s="6">
+      <c r="B52" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C52" s="3">
         <v>71</v>
       </c>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B52" s="6" t="s">
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C52" s="6">
+      <c r="B53" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C53" s="3">
         <v>71</v>
       </c>
-      <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="C53" s="6">
+      <c r="B54" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C54" s="3">
         <v>71</v>
       </c>
-      <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B54" s="6" t="s">
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C54" s="6">
+      <c r="B55" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C55" s="3">
         <v>71</v>
       </c>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B55" s="6" t="s">
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C55" s="6">
-        <v>71</v>
-      </c>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="6" t="s">
+      <c r="B56" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="C56" s="3">
+        <v>62</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="C56" s="6">
-        <v>62</v>
-      </c>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+      <c r="B57" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="3">
+        <v>90</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C57" s="6">
-        <v>90</v>
-      </c>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="B58" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="C58" s="3">
+        <v>95</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C58" s="6">
-        <v>95</v>
-      </c>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="B59" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="C59" s="3">
+        <v>100</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="C59" s="6">
-        <v>100</v>
-      </c>
-      <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="B60" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C60" s="6">
+      <c r="C60" s="3">
         <v>101</v>
       </c>
-      <c r="D60" s="6"/>
+      <c r="D60" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5BB08E-69C3-4924-B00C-F853C6298E31}">
-  <dimension ref="A3:D44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A3:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="33.75" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" t="s">
         <v>311</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>313</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>315</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>317</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>319</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>321</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>323</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>325</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>327</v>
       </c>
-      <c r="B11" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>328</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>330</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>332</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>334</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>336</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>338</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>340</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>342</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>344</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="27" ht="27.6" spans="1:1">
+      <c r="A27" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>348</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>350</v>
-      </c>
-      <c r="B30" t="s">
-        <v>351</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>351</v>
+      </c>
+      <c r="B32" t="s">
         <v>352</v>
-      </c>
-      <c r="B32" t="s">
-        <v>353</v>
       </c>
       <c r="C32">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>353</v>
+      </c>
+      <c r="D43" t="s">
         <v>354</v>
       </c>
-      <c r="D43" t="s">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>356</v>
-      </c>
-      <c r="B44" t="s">
-        <v>357</v>
       </c>
       <c r="C44">
         <v>5</v>
       </c>
     </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>360</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF8E83E-FE67-4666-B274-D66ADC59D6E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="19.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B18" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B19" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C19">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/单词表_五合一.xlsx
+++ b/单词表_五合一.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9324" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CG" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="409">
   <si>
     <t>Introduction to Computer Graphics_CS5182.pdf</t>
   </si>
@@ -443,6 +443,47 @@
     <t>这里是说对称的话就交换xy坐标轴就好了，所以只考虑斜率在0-1之间的情况</t>
   </si>
   <si>
+    <t>week4 Deep learning for 3D point clouds_CS5182.pdf</t>
+  </si>
+  <si>
+    <t>Voxels</t>
+  </si>
+  <si>
+    <t>week4 CS5182_pytorch_tutorial.pdf</t>
+  </si>
+  <si>
+    <t>Auxiliary</t>
+  </si>
+  <si>
+    <t>辅助的</t>
+  </si>
+  <si>
+    <t>Auxiliary libraries 辅助库</t>
+  </si>
+  <si>
+    <t>quirky</t>
+  </si>
+  <si>
+    <t>奇怪的</t>
+  </si>
+  <si>
+    <t>quirky bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wsl
+gpustat
+</t>
+  </si>
+  <si>
+    <t>week?? Transformation_CS5182.pdf</t>
+  </si>
+  <si>
+    <t>trigonometry</t>
+  </si>
+  <si>
+    <t>三角学</t>
+  </si>
+  <si>
     <t>Introduction_2024_lec01.pdf</t>
   </si>
   <si>
@@ -1156,6 +1197,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>拉丁短语 "id est" 的缩写，意为 "that is" 或</t>
     </r>
     <r>
@@ -1251,6 +1299,27 @@
   <si>
     <t>帕洛阿尔托（美国旧金山附近城市）</t>
   </si>
+  <si>
+    <t>Week4 ---3. Online Algorithms (new).pptx</t>
+  </si>
+  <si>
+    <t>deterministic</t>
+  </si>
+  <si>
+    <t>确定性的</t>
+  </si>
+  <si>
+    <t>这里很重要是这是个凸函数，一旦遇到comp.ratio从2--1.5--2那就说明已经有最小值1.5了，于是停止。</t>
+  </si>
+  <si>
+    <t>Ridesharing</t>
+  </si>
+  <si>
+    <t>拼车</t>
+  </si>
+  <si>
+    <t>这一页举了一些使用Online Agorithms的场景，包括拼车，因为不晓得下一步会发生什么————这TM才是人生啊，跟我2024上半年感受很贴切</t>
+  </si>
 </sst>
 </file>
 
@@ -1262,7 +1331,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1279,23 +1348,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1748,146 +1803,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1896,6 +1951,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1903,8 +1961,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2317,10 +2374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D65"/>
+  <dimension ref="A2:D90"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
@@ -2380,7 +2437,7 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2896,7 +2953,7 @@
       <c r="B61" t="s">
         <v>116</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2945,6 +3002,70 @@
       </c>
       <c r="D65" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" ht="41.4" spans="4:4">
+      <c r="D83" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" t="s">
+        <v>142</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2977,48 +3098,48 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C3">
         <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C4">
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -3026,10 +3147,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -3037,24 +3158,24 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C16">
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -3065,7 +3186,7 @@
         <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -3073,10 +3194,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -3084,167 +3205,167 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="C21">
         <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
-        <v>155</v>
+      <c r="A24" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>157</v>
+      <c r="A25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>159</v>
+      <c r="A26" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>161</v>
+      <c r="A27" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>162</v>
+      <c r="D27" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>164</v>
+      <c r="A28" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="C28">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>166</v>
+      <c r="A29" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C29">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>168</v>
+      <c r="A30" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="C30">
         <v>45</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>169</v>
+      <c r="D30" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>171</v>
+      <c r="A31" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="C31">
         <v>46</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>172</v>
+      <c r="D31" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>174</v>
+      <c r="A32" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C32">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>176</v>
+      <c r="A33" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C33">
         <v>51</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>177</v>
+      <c r="D33" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>179</v>
+      <c r="A34" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>181</v>
+      <c r="A35" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C35">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>183</v>
+      <c r="A36" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="C36">
         <v>65</v>
@@ -3271,734 +3392,734 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="3"/>
+      <c r="A2" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="A3" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="A4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="4">
         <v>2</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="A5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="A6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="4">
         <v>3</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="A7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="A8" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="A9" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="A10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>204</v>
+      <c r="D10" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="A11" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="4">
         <v>7</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="A12" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="4">
         <v>7</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="A13" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="4">
         <v>7</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="A14" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="4">
         <v>7</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="4">
+        <v>4</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="4">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="4">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="4">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="3">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B22" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="4">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="4">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="4">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" ht="25.8" spans="1:4">
+      <c r="A25" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="4">
         <v>9</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="4">
         <v>9</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C19" s="3">
-        <v>9</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C20" s="3">
-        <v>9</v>
-      </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" s="3">
-        <v>9</v>
-      </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" s="3">
-        <v>8</v>
-      </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C23" s="3">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C24" s="3">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" ht="25.8" spans="1:4">
-      <c r="A25" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C25" s="3">
-        <v>9</v>
-      </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C26" s="3">
-        <v>9</v>
-      </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="A27" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="4">
         <v>16</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>240</v>
+      <c r="D27" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="A28" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="4">
         <v>24</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="A29" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="4">
         <v>19</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="A30" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C30" s="4">
         <v>21</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="3">
+      <c r="A31" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="4">
         <v>20</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C32" s="3">
+      <c r="A32" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="4">
         <v>22</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C33" s="3">
+      <c r="A33" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C33" s="4">
         <v>22</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C34" s="3">
+      <c r="A34" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" s="4">
         <v>23</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>255</v>
+      <c r="D34" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C35" s="3">
+      <c r="A35" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="4">
         <v>26</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>258</v>
+      <c r="D35" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C36" s="3">
+      <c r="A36" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" s="4">
         <v>27</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>261</v>
+      <c r="D36" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C37" s="3">
+      <c r="A37" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37" s="4">
         <v>36</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="3">
+      <c r="A38" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C38" s="4">
         <v>36</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C39" s="3">
+      <c r="A39" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" s="4">
         <v>37</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C40" s="3">
+      <c r="A40" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" s="4">
         <v>37</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C41" s="3">
+      <c r="A41" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C41" s="4">
         <v>52</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C42" s="3">
+      <c r="A42" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C42" s="4">
         <v>58</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C43" s="3">
+      <c r="A43" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C43" s="4">
         <v>59</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="A44" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" s="4">
         <v>60</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C45" s="3">
+      <c r="A45" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" s="4">
         <v>63</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C46" s="3">
+      <c r="A46" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C46" s="4">
         <v>63</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C47" s="3">
+      <c r="A47" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C47" s="4">
         <v>63</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C48" s="3">
+      <c r="A48" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C48" s="4">
         <v>65</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="C49" s="3">
+      <c r="A49" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" s="4">
         <v>68</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="C50" s="3">
+      <c r="A50" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C50" s="4">
         <v>70</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C51" s="3">
+      <c r="A51" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C51" s="4">
         <v>71</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C52" s="3">
+      <c r="A52" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C52" s="4">
         <v>71</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C53" s="3">
+      <c r="A53" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C53" s="4">
         <v>71</v>
       </c>
-      <c r="D53" s="3"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C54" s="3">
+      <c r="A54" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C54" s="4">
         <v>71</v>
       </c>
-      <c r="D54" s="3"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C55" s="3">
+      <c r="A55" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C55" s="4">
         <v>71</v>
       </c>
-      <c r="D55" s="3"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C56" s="3">
+      <c r="A56" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C56" s="4">
         <v>62</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="C57" s="3">
+      <c r="A57" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C57" s="4">
         <v>90</v>
       </c>
-      <c r="D57" s="3"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="C58" s="3">
+      <c r="A58" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C58" s="4">
         <v>95</v>
       </c>
-      <c r="D58" s="3"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C59" s="3">
+      <c r="A59" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C59" s="4">
         <v>100</v>
       </c>
-      <c r="D59" s="3"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C60" s="3">
+      <c r="A60" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C60" s="4">
         <v>101</v>
       </c>
-      <c r="D60" s="3"/>
+      <c r="D60" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4011,7 +4132,7 @@
   <sheetPr/>
   <dimension ref="A3:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -4023,172 +4144,172 @@
   <sheetData>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B16" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="B17" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="B19" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B20" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" ht="27.6" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>345</v>
+      <c r="A27" s="2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="B29" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B30" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -4196,10 +4317,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B32" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C32">
         <v>11</v>
@@ -4207,18 +4328,18 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="D43" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -4226,25 +4347,25 @@
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>360</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>361</v>
+        <v>373</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -4256,97 +4377,97 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C19"/>
+  <dimension ref="A2:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -4354,15 +4475,15 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -4370,10 +4491,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="B18" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -4381,13 +4502,46 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="B19" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="C19">
         <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B25" t="s">
+        <v>407</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
